--- a/grupos/6ASM - Estadisticos 2020.xlsx
+++ b/grupos/6ASM - Estadisticos 2020.xlsx
@@ -2639,6 +2639,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3635,7 +3636,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4110,6 +4112,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/6ASM - Estadisticos 2020.xlsx
+++ b/grupos/6ASM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="124">
   <si>
     <t>Materia</t>
   </si>
@@ -185,6 +185,12 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
@@ -209,24 +215,48 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>HUESCA</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>MORALES</t>
+  </si>
+  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>REYES</t>
+  </si>
+  <si>
     <t>RIVERA</t>
   </si>
   <si>
     <t>ROJAS</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DE LA TEJA</t>
+  </si>
+  <si>
+    <t>TENORIO</t>
+  </si>
+  <si>
     <t>VALIENTE</t>
   </si>
   <si>
     <t>VALENCIA</t>
   </si>
   <si>
+    <t>LAUREANO</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
     <t>JIMENEZ</t>
   </si>
   <si>
@@ -260,15 +290,39 @@
     <t>CONSTANTINO</t>
   </si>
   <si>
+    <t>VALDEOLIVAR</t>
+  </si>
+  <si>
+    <t>PEÑA</t>
+  </si>
+  <si>
+    <t>CISNEROS</t>
+  </si>
+  <si>
     <t>VARGAS</t>
   </si>
   <si>
     <t>LUNA</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>SORIANO</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
     <t>FERNANDEZ</t>
   </si>
   <si>
+    <t>ASHLEY AURORA</t>
+  </si>
+  <si>
+    <t>JUAN SEBASTIAN</t>
+  </si>
+  <si>
     <t>CARLOS ROMAN</t>
   </si>
   <si>
@@ -299,97 +353,43 @@
     <t>MIGUEL ANGEL</t>
   </si>
   <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
     <t>KAREN ITZEL</t>
   </si>
   <si>
+    <t>GAEL OCTAVIO</t>
+  </si>
+  <si>
     <t>YAMILETH</t>
   </si>
   <si>
+    <t>DEMIR ALEJANDRO</t>
+  </si>
+  <si>
     <t>KELLY ITZEL</t>
   </si>
   <si>
     <t>JOAQUIN</t>
   </si>
   <si>
+    <t>FERNANDO ANGEL</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>KEVIN GABRIEL</t>
+  </si>
+  <si>
+    <t>ADOLFO DE JESUS</t>
+  </si>
+  <si>
     <t>AXEL ANDREI</t>
   </si>
   <si>
     <t>DAVID ELISEO</t>
-  </si>
-  <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>HUESCA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>DE LA TEJA</t>
-  </si>
-  <si>
-    <t>TENORIO</t>
-  </si>
-  <si>
-    <t>LAUREANO</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>VALDEOLIVAR</t>
-  </si>
-  <si>
-    <t>PEÑA</t>
-  </si>
-  <si>
-    <t>CISNEROS</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>SORIANO</t>
-  </si>
-  <si>
-    <t>SALINAS</t>
-  </si>
-  <si>
-    <t>ASHLEY AURORA</t>
-  </si>
-  <si>
-    <t>JUAN SEBASTIAN</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>GAEL OCTAVIO</t>
-  </si>
-  <si>
-    <t>DEMIR ALEJANDRO</t>
-  </si>
-  <si>
-    <t>FERNANDO ANGEL</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>KEVIN GABRIEL</t>
-  </si>
-  <si>
-    <t>ADOLFO DE JESUS</t>
   </si>
 </sst>
 </file>
@@ -873,7 +873,7 @@
         <v>-1</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J4">
         <v>-1</v>
@@ -885,7 +885,7 @@
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -932,7 +932,7 @@
         <v>-1</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>-1</v>
@@ -944,7 +944,7 @@
         <v>-1</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -991,7 +991,7 @@
         <v>-1</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>-1</v>
@@ -1003,7 +1003,7 @@
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1044,13 +1044,13 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>-1</v>
@@ -1062,7 +1062,7 @@
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1103,7 +1103,7 @@
         <v>-1</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1121,7 +1121,7 @@
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1168,7 +1168,7 @@
         <v>-1</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <v>-1</v>
@@ -1180,7 +1180,7 @@
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1227,7 +1227,7 @@
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <v>-1</v>
@@ -1239,7 +1239,7 @@
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1298,7 +1298,7 @@
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1357,7 +1357,7 @@
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1404,7 +1404,7 @@
         <v>-1</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <v>-1</v>
@@ -1416,7 +1416,7 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1463,7 +1463,7 @@
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <v>-1</v>
@@ -1475,7 +1475,7 @@
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1522,7 +1522,7 @@
         <v>-1</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J15">
         <v>-1</v>
@@ -1534,7 +1534,7 @@
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1563,7 +1563,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1575,7 +1575,7 @@
         <v>-1</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1593,7 +1593,7 @@
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1640,7 +1640,7 @@
         <v>-1</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J17">
         <v>-1</v>
@@ -1652,7 +1652,7 @@
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1681,7 +1681,7 @@
         <v>-1</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -1758,7 +1758,7 @@
         <v>-1</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J19">
         <v>-1</v>
@@ -1770,7 +1770,7 @@
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1829,7 +1829,7 @@
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -1876,7 +1876,7 @@
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J21">
         <v>-1</v>
@@ -1888,7 +1888,7 @@
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -1935,7 +1935,7 @@
         <v>-1</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J22">
         <v>-1</v>
@@ -1947,7 +1947,7 @@
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -1976,7 +1976,7 @@
         <v>-1</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2047,7 +2047,7 @@
         <v>-1</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2065,7 +2065,7 @@
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2112,7 +2112,7 @@
         <v>-1</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J25">
         <v>-1</v>
@@ -2124,7 +2124,7 @@
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2171,7 +2171,7 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J26">
         <v>-1</v>
@@ -2183,7 +2183,7 @@
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2230,7 +2230,7 @@
         <v>-1</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <v>-1</v>
@@ -2242,7 +2242,7 @@
         <v>-1</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2283,7 +2283,7 @@
         <v>-1</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2301,7 +2301,7 @@
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2342,13 +2342,13 @@
         <v>-1</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>-1</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J29">
         <v>-1</v>
@@ -2360,7 +2360,7 @@
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2573,25 +2573,25 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>69.23</v>
+        <v>73.08</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>19.23</v>
       </c>
       <c r="H6">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>30.77</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2608,22 +2608,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>76.92</v>
       </c>
       <c r="G7">
-        <v>11.54</v>
+        <v>23.08</v>
       </c>
       <c r="H7">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>11.54</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2665,36 +2665,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920384</v>
+        <v>18330051920382</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920385</v>
+        <v>18330051920382</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -2705,79 +2705,79 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920385</v>
+        <v>18330051920382</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920385</v>
+        <v>18330051920382</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920387</v>
+        <v>18330051920383</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920387</v>
+        <v>18330051920383</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2785,16 +2785,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920387</v>
+        <v>18330051920383</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -2805,56 +2805,56 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920387</v>
+        <v>18330051920383</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920394</v>
+        <v>18330051920384</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920389</v>
+        <v>18330051920384</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -2865,16 +2865,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920395</v>
+        <v>18330051920384</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -2885,56 +2885,56 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920395</v>
+        <v>18330051920384</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920397</v>
+        <v>18330051920385</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920397</v>
+        <v>18330051920385</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -2945,36 +2945,36 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920397</v>
+        <v>18330051920385</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920396</v>
+        <v>18330051920385</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -2985,96 +2985,96 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920398</v>
+        <v>18330051920387</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920399</v>
+        <v>18330051920387</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920399</v>
+        <v>18330051920387</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920399</v>
+        <v>18330051920387</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920399</v>
+        <v>18330051920387</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -3085,176 +3085,176 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920404</v>
+        <v>18330051920394</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920404</v>
+        <v>18330051920394</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920404</v>
+        <v>18330051920394</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920404</v>
+        <v>18330051920394</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920404</v>
+        <v>18330051920394</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920407</v>
+        <v>18330051920389</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>17330051920191</v>
+        <v>18330051920389</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>17330051920191</v>
+        <v>18330051920389</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>17330051920191</v>
+        <v>18330051920389</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -3265,59 +3265,59 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>17330051920191</v>
+        <v>18330051920395</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>17330051920191</v>
+        <v>18330051920395</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>17330051920191</v>
+        <v>18330051920395</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>48</v>
@@ -3325,56 +3325,56 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920411</v>
+        <v>18330051920395</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920411</v>
+        <v>18330051920395</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920411</v>
+        <v>18330051920397</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -3385,116 +3385,116 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920411</v>
+        <v>18330051920397</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920411</v>
+        <v>18330051920397</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920418</v>
+        <v>18330051920397</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920418</v>
+        <v>18330051920396</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920418</v>
+        <v>18330051920396</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920418</v>
+        <v>18330051920396</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -3505,122 +3505,1462 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920418</v>
+        <v>18330051920396</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920417</v>
+        <v>18330051920398</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920417</v>
+        <v>18330051920398</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920417</v>
+        <v>18330051920398</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920417</v>
+        <v>18330051920398</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
+        <v>18330051920399</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>18330051920399</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>18330051920399</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>18330051920399</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>18330051920399</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>18330051920402</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>18330051920402</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>18330051920402</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>18330051920402</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>18330051920404</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>18330051920404</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>18330051920404</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>18330051920404</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>18330051920404</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>18330051920404</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>18330051920405</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>18330051920405</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>18330051920405</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>18330051920405</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>18330051920407</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>18330051920407</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>18330051920407</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>18330051920407</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>18330051920407</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>18330051920409</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>18330051920409</v>
+      </c>
+      <c r="B74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>18330051920409</v>
+      </c>
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>18330051920409</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>18330051920410</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>18330051920410</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" t="s">
+        <v>115</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>18330051920410</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>18330051920410</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>17330051920191</v>
+      </c>
+      <c r="B81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>17330051920191</v>
+      </c>
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>17330051920191</v>
+      </c>
+      <c r="B83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" t="s">
+        <v>116</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>17330051920191</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" t="s">
+        <v>116</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>17330051920191</v>
+      </c>
+      <c r="B85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>116</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>17330051920191</v>
+      </c>
+      <c r="B86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>18330051920411</v>
+      </c>
+      <c r="B87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>18330051920411</v>
+      </c>
+      <c r="B88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>18330051920411</v>
+      </c>
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>18330051920411</v>
+      </c>
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>18330051920411</v>
+      </c>
+      <c r="B91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>18330051920413</v>
+      </c>
+      <c r="B92" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>18330051920413</v>
+      </c>
+      <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>18330051920413</v>
+      </c>
+      <c r="B94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>18330051920413</v>
+      </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>18330051920412</v>
+      </c>
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>18330051920412</v>
+      </c>
+      <c r="B97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>18330051920412</v>
+      </c>
+      <c r="B98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>18330051920412</v>
+      </c>
+      <c r="B99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>18330051920388</v>
+      </c>
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>18330051920388</v>
+      </c>
+      <c r="B101" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>18330051920388</v>
+      </c>
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>18330051920388</v>
+      </c>
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>120</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>18330051920415</v>
+      </c>
+      <c r="B104" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>18330051920415</v>
+      </c>
+      <c r="B105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>18330051920415</v>
+      </c>
+      <c r="B106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>18330051920415</v>
+      </c>
+      <c r="B107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" t="s">
+        <v>97</v>
+      </c>
+      <c r="D107" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>18330051920418</v>
+      </c>
+      <c r="B108" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108" t="s">
+        <v>98</v>
+      </c>
+      <c r="D108" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>18330051920418</v>
+      </c>
+      <c r="B109" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" t="s">
+        <v>98</v>
+      </c>
+      <c r="D109" t="s">
+        <v>122</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>18330051920418</v>
+      </c>
+      <c r="B110" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" t="s">
+        <v>98</v>
+      </c>
+      <c r="D110" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>18330051920418</v>
+      </c>
+      <c r="B111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
         <v>18330051920417</v>
       </c>
-      <c r="B49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" t="s">
+        <v>123</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>18330051920417</v>
+      </c>
+      <c r="B113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" t="s">
+        <v>64</v>
+      </c>
+      <c r="D113" t="s">
+        <v>123</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>18330051920417</v>
+      </c>
+      <c r="B114" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" t="s">
+        <v>123</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>18330051920417</v>
+      </c>
+      <c r="B115" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" t="s">
+        <v>123</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>18330051920417</v>
+      </c>
+      <c r="B116" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" t="s">
+        <v>123</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3662,16 +5002,16 @@
         <v>17330051920191</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3679,16 +5019,16 @@
         <v>18330051920404</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3696,16 +5036,16 @@
         <v>18330051920411</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3713,16 +5053,16 @@
         <v>18330051920418</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3730,16 +5070,16 @@
         <v>18330051920417</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3747,33 +5087,33 @@
         <v>18330051920387</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920399</v>
+        <v>18330051920397</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3781,47 +5121,47 @@
         <v>18330051920385</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920397</v>
+        <v>18330051920395</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920395</v>
+        <v>18330051920399</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -3832,13 +5172,13 @@
         <v>18330051920384</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3849,13 +5189,13 @@
         <v>18330051920394</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3866,13 +5206,13 @@
         <v>18330051920389</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3883,13 +5223,13 @@
         <v>18330051920396</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3900,13 +5240,13 @@
         <v>18330051920398</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3917,13 +5257,13 @@
         <v>18330051920407</v>
       </c>
       <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3934,13 +5274,13 @@
         <v>18330051920382</v>
       </c>
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
         <v>99</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3951,13 +5291,13 @@
         <v>18330051920383</v>
       </c>
       <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
         <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>116</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3968,13 +5308,13 @@
         <v>18330051920402</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3985,13 +5325,13 @@
         <v>18330051920405</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4002,13 +5342,13 @@
         <v>18330051920409</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4019,13 +5359,13 @@
         <v>18330051920410</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4036,13 +5376,13 @@
         <v>18330051920413</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4053,13 +5393,13 @@
         <v>18330051920412</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4070,13 +5410,13 @@
         <v>18330051920388</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4087,13 +5427,13 @@
         <v>18330051920415</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4106,7 +5446,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4139,213 +5479,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920395</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920395</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920384</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920394</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920389</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920396</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920398</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920405</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920407</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/6ASM - Estadisticos 2020.xlsx
+++ b/grupos/6ASM - Estadisticos 2020.xlsx
@@ -158,19 +158,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
+    <t>Medina Tolentino Elio</t>
+  </si>
+  <si>
     <t>Velasco Sanchez David</t>
   </si>
   <si>
-    <t>Hernández Mendoza Delfina</t>
-  </si>
-  <si>
-    <t>Medina Tolentino Elio</t>
+    <t>Ortega Valle Manuel</t>
   </si>
   <si>
     <t>Duran Amezcua Maria Angelica</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
   </si>
   <si>
     <t>NC</t>
@@ -1693,7 +1693,7 @@
         <v>-1</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -1988,7 +1988,7 @@
         <v>-1</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -2445,30 +2445,27 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>61.54</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>7.5</v>
+        <v>65.38</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J2">
-        <v>38.46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -2477,30 +2474,27 @@
         <v>26</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>65.38</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>8.199999999999999</v>
-      </c>
       <c r="I3">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J3">
-        <v>34.62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -2509,25 +2503,22 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>65.38</v>
-      </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7.9</v>
+        <v>61.54</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J4">
-        <v>34.62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2535,36 +2526,33 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>26</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>65.38</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>7.9</v>
-      </c>
       <c r="I5">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J5">
-        <v>34.62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -2573,30 +2561,30 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>73.08</v>
+        <v>65.38</v>
       </c>
       <c r="G6">
-        <v>19.23</v>
+        <v>34.62</v>
       </c>
       <c r="H6">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>7.69</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -2605,25 +2593,25 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>76.92</v>
+        <v>69.23</v>
       </c>
       <c r="G7">
-        <v>23.08</v>
+        <v>30.77</v>
       </c>
       <c r="H7">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.69</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2697,10 +2685,10 @@
         <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2717,10 +2705,10 @@
         <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2740,7 +2728,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2757,7 +2745,7 @@
         <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -2777,7 +2765,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2797,7 +2785,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
@@ -2817,10 +2805,10 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2837,10 +2825,10 @@
         <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2860,7 +2848,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2877,10 +2865,10 @@
         <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2897,7 +2885,7 @@
         <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
@@ -2920,7 +2908,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2937,10 +2925,10 @@
         <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2957,7 +2945,7 @@
         <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
@@ -2980,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2997,10 +2985,10 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3017,7 +3005,7 @@
         <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
@@ -3037,7 +3025,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
         <v>47</v>
@@ -3057,10 +3045,10 @@
         <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3077,10 +3065,10 @@
         <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3097,10 +3085,10 @@
         <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3117,10 +3105,10 @@
         <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3137,10 +3125,10 @@
         <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3160,7 +3148,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3177,7 +3165,7 @@
         <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
         <v>48</v>
@@ -3200,7 +3188,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3217,7 +3205,7 @@
         <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
         <v>48</v>
@@ -3237,10 +3225,10 @@
         <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3260,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3277,10 +3265,10 @@
         <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3300,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3320,7 +3308,7 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3340,7 +3328,7 @@
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3357,10 +3345,10 @@
         <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3377,7 +3365,7 @@
         <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
         <v>48</v>
@@ -3397,10 +3385,10 @@
         <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3417,10 +3405,10 @@
         <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3440,7 +3428,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3457,10 +3445,10 @@
         <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3477,10 +3465,10 @@
         <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3497,10 +3485,10 @@
         <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3517,10 +3505,10 @@
         <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3540,7 +3528,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3560,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3577,7 +3565,7 @@
         <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -3597,10 +3585,10 @@
         <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3617,10 +3605,10 @@
         <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3637,10 +3625,10 @@
         <v>110</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3657,7 +3645,7 @@
         <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
         <v>48</v>
@@ -3677,10 +3665,10 @@
         <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3697,10 +3685,10 @@
         <v>110</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3717,10 +3705,10 @@
         <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3737,7 +3725,7 @@
         <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
         <v>46</v>
@@ -3757,10 +3745,10 @@
         <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3777,10 +3765,10 @@
         <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3797,10 +3785,10 @@
         <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3817,7 +3805,7 @@
         <v>112</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
         <v>46</v>
@@ -3837,10 +3825,10 @@
         <v>112</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3860,7 +3848,7 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3880,7 +3868,7 @@
         <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3900,7 +3888,7 @@
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3917,7 +3905,7 @@
         <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
         <v>47</v>
@@ -3937,7 +3925,7 @@
         <v>113</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -3957,7 +3945,7 @@
         <v>113</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
         <v>46</v>
@@ -3977,10 +3965,10 @@
         <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3997,10 +3985,10 @@
         <v>114</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4017,10 +4005,10 @@
         <v>114</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4037,10 +4025,10 @@
         <v>114</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4057,7 +4045,7 @@
         <v>114</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>47</v>
@@ -4077,10 +4065,10 @@
         <v>114</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4097,7 +4085,7 @@
         <v>111</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
         <v>47</v>
@@ -4117,10 +4105,10 @@
         <v>111</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4137,10 +4125,10 @@
         <v>111</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4157,7 +4145,7 @@
         <v>111</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F76" t="s">
         <v>48</v>
@@ -4177,10 +4165,10 @@
         <v>115</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4197,7 +4185,7 @@
         <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
         <v>48</v>
@@ -4217,7 +4205,7 @@
         <v>115</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
         <v>47</v>
@@ -4237,10 +4225,10 @@
         <v>115</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4257,10 +4245,10 @@
         <v>116</v>
       </c>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4277,10 +4265,10 @@
         <v>116</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4297,10 +4285,10 @@
         <v>116</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4317,7 +4305,7 @@
         <v>116</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F84" t="s">
         <v>47</v>
@@ -4337,10 +4325,10 @@
         <v>116</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4357,10 +4345,10 @@
         <v>116</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4380,7 +4368,7 @@
         <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4400,7 +4388,7 @@
         <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4417,10 +4405,10 @@
         <v>117</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4440,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4457,7 +4445,7 @@
         <v>117</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
         <v>46</v>
@@ -4477,10 +4465,10 @@
         <v>118</v>
       </c>
       <c r="E92" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4497,10 +4485,10 @@
         <v>118</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4517,7 +4505,7 @@
         <v>118</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F94" t="s">
         <v>48</v>
@@ -4540,7 +4528,7 @@
         <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4557,10 +4545,10 @@
         <v>119</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4580,7 +4568,7 @@
         <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4597,10 +4585,10 @@
         <v>119</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4617,10 +4605,10 @@
         <v>119</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4637,10 +4625,10 @@
         <v>120</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4660,7 +4648,7 @@
         <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4677,7 +4665,7 @@
         <v>120</v>
       </c>
       <c r="E102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F102" t="s">
         <v>48</v>
@@ -4697,10 +4685,10 @@
         <v>120</v>
       </c>
       <c r="E103" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4720,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="F104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4737,7 +4725,7 @@
         <v>121</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F105" t="s">
         <v>47</v>
@@ -4760,7 +4748,7 @@
         <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4777,10 +4765,10 @@
         <v>121</v>
       </c>
       <c r="E107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4800,7 +4788,7 @@
         <v>4</v>
       </c>
       <c r="F108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4820,7 +4808,7 @@
         <v>6</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4840,7 +4828,7 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4860,7 +4848,7 @@
         <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4877,10 +4865,10 @@
         <v>123</v>
       </c>
       <c r="E112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4900,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4917,10 +4905,10 @@
         <v>123</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4940,7 +4928,7 @@
         <v>5</v>
       </c>
       <c r="F115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4957,10 +4945,10 @@
         <v>123</v>
       </c>
       <c r="E116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4999,444 +4987,444 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>17330051920191</v>
+        <v>18330051920404</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920404</v>
+        <v>17330051920191</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920411</v>
+        <v>18330051920387</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920418</v>
+        <v>18330051920394</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920417</v>
+        <v>18330051920395</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920387</v>
+        <v>18330051920399</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920397</v>
+        <v>18330051920407</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920385</v>
+        <v>18330051920411</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920395</v>
+        <v>18330051920417</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920399</v>
+        <v>18330051920382</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920384</v>
+        <v>18330051920383</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920394</v>
+        <v>18330051920384</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920389</v>
+        <v>18330051920385</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920396</v>
+        <v>18330051920389</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920398</v>
+        <v>18330051920397</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920407</v>
+        <v>18330051920396</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920382</v>
+        <v>18330051920398</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920383</v>
+        <v>18330051920402</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920402</v>
+        <v>18330051920405</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920405</v>
+        <v>18330051920409</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920409</v>
+        <v>18330051920410</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920410</v>
+        <v>18330051920413</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920413</v>
+        <v>18330051920412</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920412</v>
+        <v>18330051920388</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920388</v>
+        <v>18330051920415</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920415</v>
+        <v>18330051920418</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5476,7 +5464,7 @@
         <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6ASM - Estadisticos 2020.xlsx
+++ b/grupos/6ASM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="124">
   <si>
     <t>Materia</t>
   </si>
@@ -158,21 +158,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Medina Tolentino Elio</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Velasco Sanchez David</t>
+  </si>
+  <si>
+    <t>Duran Amezcua Maria Angelica</t>
+  </si>
+  <si>
     <t>Hernández Mendoza Delfina</t>
   </si>
   <si>
-    <t>Medina Tolentino Elio</t>
-  </si>
-  <si>
-    <t>Velasco Sanchez David</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Duran Amezcua Maria Angelica</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -185,111 +185,177 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>ESCOBAR</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DE LA TEJA</t>
+  </si>
+  <si>
+    <t>VALIENTE</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>ALONSO</t>
+  </si>
+  <si>
+    <t>PALOMARES</t>
+  </si>
+  <si>
+    <t>CONSTANTINO</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>SORIANO</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>CARLOS ROMAN</t>
+  </si>
+  <si>
+    <t>EDUARDO RAFAEL</t>
+  </si>
+  <si>
+    <t>JAVIER FRANCISCO</t>
+  </si>
+  <si>
+    <t>MARIBEL</t>
+  </si>
+  <si>
+    <t>JOSE ARMANDO</t>
+  </si>
+  <si>
+    <t>AMISADAI</t>
+  </si>
+  <si>
+    <t>YAIR</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>KAREN ITZEL</t>
+  </si>
+  <si>
+    <t>YAMILETH</t>
+  </si>
+  <si>
+    <t>KELLY ITZEL</t>
+  </si>
+  <si>
+    <t>JOAQUIN</t>
+  </si>
+  <si>
+    <t>FERNANDO ANGEL</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>KEVIN GABRIEL</t>
+  </si>
+  <si>
+    <t>AXEL ANDREI</t>
+  </si>
+  <si>
+    <t>DAVID ELISEO</t>
+  </si>
+  <si>
     <t>ALCANTARA</t>
   </si>
   <si>
     <t>ALVAREZ</t>
   </si>
   <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
-    <t>ESCOBAR</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>GUERRA</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>HUESCA</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>MORALES</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
     <t>REYES</t>
   </si>
   <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>DE LA TEJA</t>
-  </si>
-  <si>
     <t>TENORIO</t>
   </si>
   <si>
-    <t>VALIENTE</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
     <t>LAUREANO</t>
   </si>
   <si>
     <t>SERRANO</t>
   </si>
   <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>NOLASCO</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>ALONSO</t>
-  </si>
-  <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
     <t>ORTEGA</t>
   </si>
   <si>
-    <t>PALOMARES</t>
-  </si>
-  <si>
-    <t>CONSTANTINO</t>
-  </si>
-  <si>
     <t>VALDEOLIVAR</t>
   </si>
   <si>
@@ -299,97 +365,31 @@
     <t>CISNEROS</t>
   </si>
   <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>SORIANO</t>
-  </si>
-  <si>
     <t>SALINAS</t>
   </si>
   <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
     <t>ASHLEY AURORA</t>
   </si>
   <si>
     <t>JUAN SEBASTIAN</t>
   </si>
   <si>
-    <t>CARLOS ROMAN</t>
-  </si>
-  <si>
-    <t>EDUARDO RAFAEL</t>
-  </si>
-  <si>
-    <t>JAVIER FRANCISCO</t>
-  </si>
-  <si>
-    <t>MARIBEL</t>
-  </si>
-  <si>
-    <t>JOSE ARMANDO</t>
-  </si>
-  <si>
-    <t>AMISADAI</t>
-  </si>
-  <si>
-    <t>YAIR</t>
-  </si>
-  <si>
     <t>BRAYAN</t>
   </si>
   <si>
     <t>CHRISTOPHER</t>
   </si>
   <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
     <t>JOSUE</t>
   </si>
   <si>
-    <t>KAREN ITZEL</t>
-  </si>
-  <si>
     <t>GAEL OCTAVIO</t>
   </si>
   <si>
-    <t>YAMILETH</t>
-  </si>
-  <si>
     <t>DEMIR ALEJANDRO</t>
   </si>
   <si>
-    <t>KELLY ITZEL</t>
-  </si>
-  <si>
-    <t>JOAQUIN</t>
-  </si>
-  <si>
-    <t>FERNANDO ANGEL</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>KEVIN GABRIEL</t>
-  </si>
-  <si>
     <t>ADOLFO DE JESUS</t>
-  </si>
-  <si>
-    <t>AXEL ANDREI</t>
-  </si>
-  <si>
-    <t>DAVID ELISEO</t>
   </si>
 </sst>
 </file>
@@ -870,19 +870,19 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>8</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>8</v>
@@ -929,19 +929,19 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
         <v>7</v>
@@ -982,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -997,10 +997,10 @@
         <v>-1</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -1056,10 +1056,10 @@
         <v>-1</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -1174,10 +1174,10 @@
         <v>-1</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M9">
         <v>6</v>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1233,10 +1233,10 @@
         <v>-1</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M10">
         <v>10</v>
@@ -1292,7 +1292,7 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L11">
         <v>-1</v>
@@ -1324,13 +1324,13 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1342,19 +1342,19 @@
         <v>7</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M12">
         <v>8</v>
@@ -1392,7 +1392,7 @@
         <v>-1</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <v>5</v>
@@ -1448,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -1460,19 +1460,19 @@
         <v>6</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>7</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M14">
         <v>6</v>
@@ -1510,7 +1510,7 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -1519,19 +1519,19 @@
         <v>7</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>7</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M15">
         <v>6</v>
@@ -1569,28 +1569,28 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K16">
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M16">
         <v>6</v>
@@ -1637,19 +1637,19 @@
         <v>7</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>6</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M17">
         <v>7</v>
@@ -1678,7 +1678,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1687,7 +1687,7 @@
         <v>6</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>-1</v>
@@ -1696,13 +1696,13 @@
         <v>5</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K18">
         <v>-1</v>
@@ -1755,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>8</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M19">
         <v>8</v>
@@ -1802,7 +1802,7 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -1814,19 +1814,19 @@
         <v>6</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M20">
         <v>6</v>
@@ -1873,19 +1873,19 @@
         <v>6</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>7</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M21">
         <v>8</v>
@@ -1932,19 +1932,19 @@
         <v>6</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <v>7</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M22">
         <v>6</v>
@@ -1982,7 +1982,7 @@
         <v>-1</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>-1</v>
@@ -2041,7 +2041,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>-1</v>
@@ -2118,10 +2118,10 @@
         <v>-1</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M25">
         <v>6</v>
@@ -2168,19 +2168,19 @@
         <v>8</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>7</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>-1</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M26">
         <v>6</v>
@@ -2227,19 +2227,19 @@
         <v>7</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I27">
         <v>8</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M27">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         <v>-1</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>-1</v>
@@ -2336,7 +2336,7 @@
         <v>-1</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F29">
         <v>-1</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -2445,114 +2445,126 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>53.85</v>
       </c>
       <c r="G2">
-        <v>65.38</v>
+        <v>19.23</v>
+      </c>
+      <c r="H2">
+        <v>8.800000000000001</v>
       </c>
       <c r="I2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>26</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>53.85</v>
       </c>
       <c r="G3">
-        <v>65.38</v>
+        <v>23.08</v>
+      </c>
+      <c r="H3">
+        <v>8.199999999999999</v>
       </c>
       <c r="I3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>65.38</v>
       </c>
       <c r="G4">
-        <v>61.54</v>
+        <v>34.62</v>
+      </c>
+      <c r="H4">
+        <v>6.9</v>
       </c>
       <c r="I4">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>26</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>65.38</v>
       </c>
       <c r="G5">
-        <v>65.38</v>
+        <v>34.62</v>
+      </c>
+      <c r="H5">
+        <v>7.6</v>
       </c>
       <c r="I5">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -2561,30 +2573,30 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>65.38</v>
+        <v>69.23</v>
       </c>
       <c r="G6">
-        <v>34.62</v>
+        <v>30.77</v>
       </c>
       <c r="H6">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>34.62</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -2593,25 +2605,25 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>69.23</v>
+        <v>73.08</v>
       </c>
       <c r="G7">
-        <v>30.77</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>7.69</v>
+        <v>26.92</v>
       </c>
     </row>
   </sheetData>
@@ -2621,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2653,79 +2665,79 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920382</v>
+        <v>18330051920384</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920382</v>
+        <v>18330051920384</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920382</v>
+        <v>18330051920385</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920382</v>
+        <v>18330051920385</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -2733,79 +2745,79 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920383</v>
+        <v>18330051920387</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920383</v>
+        <v>18330051920387</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920383</v>
+        <v>18330051920387</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920383</v>
+        <v>18330051920387</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>47</v>
@@ -2813,19 +2825,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920384</v>
+        <v>18330051920387</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
@@ -2833,59 +2845,59 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920384</v>
+        <v>18330051920394</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920384</v>
+        <v>18330051920394</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920384</v>
+        <v>18330051920394</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
@@ -2893,39 +2905,39 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920385</v>
+        <v>18330051920394</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920385</v>
+        <v>18330051920389</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
         <v>46</v>
@@ -2933,39 +2945,39 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920385</v>
+        <v>18330051920389</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920385</v>
+        <v>18330051920395</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
         <v>47</v>
@@ -2973,19 +2985,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920387</v>
+        <v>18330051920397</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
@@ -2993,139 +3005,139 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920387</v>
+        <v>18330051920397</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920387</v>
+        <v>18330051920397</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920387</v>
+        <v>18330051920399</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920387</v>
+        <v>18330051920399</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920394</v>
+        <v>18330051920404</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920394</v>
+        <v>18330051920404</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920394</v>
+        <v>18330051920404</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
         <v>47</v>
@@ -3133,236 +3145,236 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920394</v>
+        <v>18330051920404</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920394</v>
+        <v>18330051920407</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920389</v>
+        <v>17330051920191</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920389</v>
+        <v>17330051920191</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920389</v>
+        <v>17330051920191</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920389</v>
+        <v>17330051920191</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920395</v>
+        <v>17330051920191</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920395</v>
+        <v>17330051920191</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920395</v>
+        <v>18330051920411</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920395</v>
+        <v>18330051920411</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920395</v>
+        <v>18330051920411</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920397</v>
+        <v>18330051920411</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -3373,59 +3385,59 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920397</v>
+        <v>18330051920411</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920397</v>
+        <v>18330051920413</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920397</v>
+        <v>18330051920413</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
         <v>46</v>
@@ -3433,159 +3445,159 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920396</v>
+        <v>18330051920412</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920396</v>
+        <v>18330051920388</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920396</v>
+        <v>18330051920388</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920396</v>
+        <v>18330051920418</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920398</v>
+        <v>18330051920418</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920398</v>
+        <v>18330051920418</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920398</v>
+        <v>18330051920418</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920398</v>
+        <v>18330051920417</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
@@ -3593,1361 +3605,81 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920399</v>
+        <v>18330051920417</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920399</v>
+        <v>18330051920417</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920399</v>
+        <v>18330051920417</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920399</v>
+        <v>18330051920417</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>18330051920399</v>
-      </c>
-      <c r="B53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>18330051920402</v>
-      </c>
-      <c r="B54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>18330051920402</v>
-      </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>18330051920402</v>
-      </c>
-      <c r="B56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>18330051920402</v>
-      </c>
-      <c r="B57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>18330051920404</v>
-      </c>
-      <c r="B58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>18330051920404</v>
-      </c>
-      <c r="B59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>18330051920404</v>
-      </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" t="s">
-        <v>112</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>18330051920404</v>
-      </c>
-      <c r="B61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>18330051920404</v>
-      </c>
-      <c r="B62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>18330051920404</v>
-      </c>
-      <c r="B63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" t="s">
-        <v>112</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>18330051920405</v>
-      </c>
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>18330051920405</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" t="s">
-        <v>113</v>
-      </c>
-      <c r="E65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>18330051920405</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" t="s">
-        <v>113</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>18330051920405</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D67" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>18330051920407</v>
-      </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>18330051920407</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" t="s">
-        <v>114</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>18330051920407</v>
-      </c>
-      <c r="B70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" t="s">
-        <v>114</v>
-      </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>18330051920407</v>
-      </c>
-      <c r="B71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" t="s">
-        <v>114</v>
-      </c>
-      <c r="E71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>18330051920407</v>
-      </c>
-      <c r="B72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" t="s">
-        <v>114</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>18330051920409</v>
-      </c>
-      <c r="B73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" t="s">
-        <v>111</v>
-      </c>
-      <c r="E73" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>18330051920409</v>
-      </c>
-      <c r="B74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" t="s">
-        <v>111</v>
-      </c>
-      <c r="E74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>18330051920409</v>
-      </c>
-      <c r="B75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>18330051920409</v>
-      </c>
-      <c r="B76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" t="s">
-        <v>111</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>18330051920410</v>
-      </c>
-      <c r="B77" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77" t="s">
-        <v>115</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>18330051920410</v>
-      </c>
-      <c r="B78" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" t="s">
-        <v>115</v>
-      </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>18330051920410</v>
-      </c>
-      <c r="B79" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" t="s">
-        <v>115</v>
-      </c>
-      <c r="E79" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>18330051920410</v>
-      </c>
-      <c r="B80" t="s">
-        <v>70</v>
-      </c>
-      <c r="C80" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>17330051920191</v>
-      </c>
-      <c r="B81" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" t="s">
-        <v>93</v>
-      </c>
-      <c r="D81" t="s">
-        <v>116</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>17330051920191</v>
-      </c>
-      <c r="B82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" t="s">
-        <v>93</v>
-      </c>
-      <c r="D82" t="s">
-        <v>116</v>
-      </c>
-      <c r="E82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>17330051920191</v>
-      </c>
-      <c r="B83" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D83" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>17330051920191</v>
-      </c>
-      <c r="B84" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" t="s">
-        <v>93</v>
-      </c>
-      <c r="D84" t="s">
-        <v>116</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>17330051920191</v>
-      </c>
-      <c r="B85" t="s">
-        <v>70</v>
-      </c>
-      <c r="C85" t="s">
-        <v>93</v>
-      </c>
-      <c r="D85" t="s">
-        <v>116</v>
-      </c>
-      <c r="E85" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>17330051920191</v>
-      </c>
-      <c r="B86" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D86" t="s">
-        <v>116</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>18330051920411</v>
-      </c>
-      <c r="B87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" t="s">
-        <v>94</v>
-      </c>
-      <c r="D87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E87" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>18330051920411</v>
-      </c>
-      <c r="B88" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" t="s">
-        <v>94</v>
-      </c>
-      <c r="D88" t="s">
-        <v>117</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>18330051920411</v>
-      </c>
-      <c r="B89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" t="s">
-        <v>94</v>
-      </c>
-      <c r="D89" t="s">
-        <v>117</v>
-      </c>
-      <c r="E89" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>18330051920411</v>
-      </c>
-      <c r="B90" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90" t="s">
-        <v>94</v>
-      </c>
-      <c r="D90" t="s">
-        <v>117</v>
-      </c>
-      <c r="E90" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>18330051920411</v>
-      </c>
-      <c r="B91" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" t="s">
-        <v>94</v>
-      </c>
-      <c r="D91" t="s">
-        <v>117</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>18330051920413</v>
-      </c>
-      <c r="B92" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" t="s">
-        <v>118</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>18330051920413</v>
-      </c>
-      <c r="B93" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" t="s">
-        <v>95</v>
-      </c>
-      <c r="D93" t="s">
-        <v>118</v>
-      </c>
-      <c r="E93" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>18330051920413</v>
-      </c>
-      <c r="B94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" t="s">
-        <v>95</v>
-      </c>
-      <c r="D94" t="s">
-        <v>118</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>18330051920413</v>
-      </c>
-      <c r="B95" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" t="s">
-        <v>95</v>
-      </c>
-      <c r="D95" t="s">
-        <v>118</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>18330051920412</v>
-      </c>
-      <c r="B96" t="s">
-        <v>72</v>
-      </c>
-      <c r="C96" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" t="s">
-        <v>119</v>
-      </c>
-      <c r="E96" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>18330051920412</v>
-      </c>
-      <c r="B97" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" t="s">
-        <v>96</v>
-      </c>
-      <c r="D97" t="s">
-        <v>119</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>18330051920412</v>
-      </c>
-      <c r="B98" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" t="s">
-        <v>119</v>
-      </c>
-      <c r="E98" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>18330051920412</v>
-      </c>
-      <c r="B99" t="s">
-        <v>72</v>
-      </c>
-      <c r="C99" t="s">
-        <v>96</v>
-      </c>
-      <c r="D99" t="s">
-        <v>119</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>18330051920388</v>
-      </c>
-      <c r="B100" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100" t="s">
-        <v>68</v>
-      </c>
-      <c r="D100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E100" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>18330051920388</v>
-      </c>
-      <c r="B101" t="s">
-        <v>73</v>
-      </c>
-      <c r="C101" t="s">
-        <v>68</v>
-      </c>
-      <c r="D101" t="s">
-        <v>120</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>18330051920388</v>
-      </c>
-      <c r="B102" t="s">
-        <v>73</v>
-      </c>
-      <c r="C102" t="s">
-        <v>68</v>
-      </c>
-      <c r="D102" t="s">
-        <v>120</v>
-      </c>
-      <c r="E102" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>18330051920388</v>
-      </c>
-      <c r="B103" t="s">
-        <v>73</v>
-      </c>
-      <c r="C103" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" t="s">
-        <v>120</v>
-      </c>
-      <c r="E103" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>18330051920415</v>
-      </c>
-      <c r="B104" t="s">
-        <v>74</v>
-      </c>
-      <c r="C104" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" t="s">
-        <v>121</v>
-      </c>
-      <c r="E104" t="s">
-        <v>4</v>
-      </c>
-      <c r="F104" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>18330051920415</v>
-      </c>
-      <c r="B105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C105" t="s">
-        <v>97</v>
-      </c>
-      <c r="D105" t="s">
-        <v>121</v>
-      </c>
-      <c r="E105" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>18330051920415</v>
-      </c>
-      <c r="B106" t="s">
-        <v>74</v>
-      </c>
-      <c r="C106" t="s">
-        <v>97</v>
-      </c>
-      <c r="D106" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>18330051920415</v>
-      </c>
-      <c r="B107" t="s">
-        <v>74</v>
-      </c>
-      <c r="C107" t="s">
-        <v>97</v>
-      </c>
-      <c r="D107" t="s">
-        <v>121</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>18330051920418</v>
-      </c>
-      <c r="B108" t="s">
-        <v>75</v>
-      </c>
-      <c r="C108" t="s">
-        <v>98</v>
-      </c>
-      <c r="D108" t="s">
-        <v>122</v>
-      </c>
-      <c r="E108" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>18330051920418</v>
-      </c>
-      <c r="B109" t="s">
-        <v>75</v>
-      </c>
-      <c r="C109" t="s">
-        <v>98</v>
-      </c>
-      <c r="D109" t="s">
-        <v>122</v>
-      </c>
-      <c r="E109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>18330051920418</v>
-      </c>
-      <c r="B110" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110" t="s">
-        <v>98</v>
-      </c>
-      <c r="D110" t="s">
-        <v>122</v>
-      </c>
-      <c r="E110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>18330051920418</v>
-      </c>
-      <c r="B111" t="s">
-        <v>75</v>
-      </c>
-      <c r="C111" t="s">
-        <v>98</v>
-      </c>
-      <c r="D111" t="s">
-        <v>122</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>18330051920417</v>
-      </c>
-      <c r="B112" t="s">
-        <v>76</v>
-      </c>
-      <c r="C112" t="s">
-        <v>64</v>
-      </c>
-      <c r="D112" t="s">
-        <v>123</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>18330051920417</v>
-      </c>
-      <c r="B113" t="s">
-        <v>76</v>
-      </c>
-      <c r="C113" t="s">
-        <v>64</v>
-      </c>
-      <c r="D113" t="s">
-        <v>123</v>
-      </c>
-      <c r="E113" t="s">
-        <v>4</v>
-      </c>
-      <c r="F113" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>18330051920417</v>
-      </c>
-      <c r="B114" t="s">
-        <v>76</v>
-      </c>
-      <c r="C114" t="s">
-        <v>64</v>
-      </c>
-      <c r="D114" t="s">
-        <v>123</v>
-      </c>
-      <c r="E114" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>18330051920417</v>
-      </c>
-      <c r="B115" t="s">
-        <v>76</v>
-      </c>
-      <c r="C115" t="s">
-        <v>64</v>
-      </c>
-      <c r="D115" t="s">
-        <v>123</v>
-      </c>
-      <c r="E115" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>18330051920417</v>
-      </c>
-      <c r="B116" t="s">
-        <v>76</v>
-      </c>
-      <c r="C116" t="s">
-        <v>64</v>
-      </c>
-      <c r="D116" t="s">
-        <v>123</v>
-      </c>
-      <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4987,16 +3719,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>18330051920404</v>
+        <v>17330051920191</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -5004,33 +3736,33 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>17330051920191</v>
+        <v>18330051920387</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920387</v>
+        <v>18330051920411</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -5038,16 +3770,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920394</v>
+        <v>18330051920417</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -5055,376 +3787,376 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920395</v>
+        <v>18330051920394</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920399</v>
+        <v>18330051920404</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920407</v>
+        <v>18330051920418</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920411</v>
+        <v>18330051920397</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920417</v>
+        <v>18330051920384</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920382</v>
+        <v>18330051920385</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920383</v>
+        <v>18330051920389</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920384</v>
+        <v>18330051920399</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920385</v>
+        <v>18330051920413</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920389</v>
+        <v>18330051920388</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920397</v>
+        <v>18330051920395</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920396</v>
+        <v>18330051920407</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920398</v>
+        <v>18330051920412</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920402</v>
+        <v>18330051920382</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920405</v>
+        <v>18330051920383</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920409</v>
+        <v>18330051920396</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920410</v>
+        <v>18330051920398</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920413</v>
+        <v>18330051920402</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920412</v>
+        <v>18330051920405</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920388</v>
+        <v>18330051920409</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
         <v>120</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920415</v>
+        <v>18330051920410</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920418</v>
+        <v>18330051920415</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5434,7 +4166,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5467,6 +4199,305 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920384</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920384</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920385</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920385</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920389</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920389</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920413</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920413</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920388</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920388</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920395</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920407</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920412</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/6ASM - Estadisticos 2020.xlsx
+++ b/grupos/6ASM - Estadisticos 2020.xlsx
@@ -2757,10 +2757,10 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2777,10 +2777,10 @@
         <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2797,10 +2797,10 @@
         <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2817,10 +2817,10 @@
         <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2837,10 +2837,10 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2877,10 +2877,10 @@
         <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2897,10 +2897,10 @@
         <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2917,7 +2917,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
@@ -2937,7 +2937,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>46</v>
@@ -2957,7 +2957,7 @@
         <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
@@ -2997,7 +2997,7 @@
         <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
@@ -3017,7 +3017,7 @@
         <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
@@ -3057,10 +3057,10 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3077,10 +3077,10 @@
         <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3097,10 +3097,10 @@
         <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3117,10 +3117,10 @@
         <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3137,10 +3137,10 @@
         <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3157,10 +3157,10 @@
         <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3217,7 +3217,7 @@
         <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
         <v>46</v>
@@ -3237,10 +3237,10 @@
         <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3257,7 +3257,7 @@
         <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>46</v>
@@ -3277,10 +3277,10 @@
         <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3477,7 +3477,7 @@
         <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
         <v>46</v>
@@ -3497,7 +3497,7 @@
         <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>46</v>

--- a/grupos/6ASM - Estadisticos 2020.xlsx
+++ b/grupos/6ASM - Estadisticos 2020.xlsx
@@ -164,10 +164,10 @@
     <t>Ortega Valle Manuel</t>
   </si>
   <si>
-    <t>Velasco Sanchez David</t>
-  </si>
-  <si>
-    <t>Duran Amezcua Maria Angelica</t>
+    <t>Velasco Sánchez David</t>
+  </si>
+  <si>
+    <t>Duran Amezcua María Angélica</t>
   </si>
   <si>
     <t>Hernández Mendoza Delfina</t>
